--- a/hardware/Expansion slot pinout.xlsx
+++ b/hardware/Expansion slot pinout.xlsx
@@ -321,9 +321,6 @@
     <t>E</t>
   </si>
   <si>
-    <t>nc</t>
-  </si>
-  <si>
     <t>nACK</t>
   </si>
   <si>
@@ -334,13 +331,16 @@
   </si>
   <si>
     <t>nID = identification ROM chip select</t>
+  </si>
+  <si>
+    <t>nIACK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,13 +417,6 @@
     <font>
       <sz val="11"/>
       <color theme="7"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -535,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -626,9 +619,6 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -937,7 +927,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -961,7 +951,7 @@
       <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -977,7 +967,7 @@
       <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="33" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="12" t="s">
@@ -986,7 +976,7 @@
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="34"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
@@ -1000,14 +990,14 @@
       <c r="F3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="34"/>
+      <c r="G3" s="33"/>
       <c r="H3" s="12" t="s">
         <v>98</v>
       </c>
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="34"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="13" t="s">
         <v>10</v>
       </c>
@@ -1021,12 +1011,12 @@
       <c r="F4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="34"/>
+      <c r="G4" s="33"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="34"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="13" t="s">
         <v>14</v>
       </c>
@@ -1040,12 +1030,12 @@
       <c r="F5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="34"/>
+      <c r="G5" s="33"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="34"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="13" t="s">
         <v>18</v>
       </c>
@@ -1059,12 +1049,12 @@
       <c r="F6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="34"/>
+      <c r="G6" s="33"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="34"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="13" t="s">
         <v>22</v>
       </c>
@@ -1078,12 +1068,12 @@
       <c r="F7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="34"/>
+      <c r="G7" s="33"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="34"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="13" t="s">
         <v>26</v>
       </c>
@@ -1097,12 +1087,12 @@
       <c r="F8" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="34"/>
+      <c r="G8" s="33"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="34"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="13" t="s">
         <v>30</v>
       </c>
@@ -1116,12 +1106,12 @@
       <c r="F9" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="34"/>
+      <c r="G9" s="33"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="34"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="13" t="s">
         <v>34</v>
       </c>
@@ -1135,12 +1125,12 @@
       <c r="F10" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="34"/>
+      <c r="G10" s="33"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="34"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
@@ -1154,12 +1144,12 @@
       <c r="F11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="34"/>
+      <c r="G11" s="33"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="34"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="18" t="s">
         <v>42</v>
       </c>
@@ -1173,12 +1163,12 @@
       <c r="F12" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="34"/>
+      <c r="G12" s="33"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="34"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="18" t="s">
         <v>46</v>
       </c>
@@ -1192,12 +1182,12 @@
       <c r="F13" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="34"/>
+      <c r="G13" s="33"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="34"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="18" t="s">
         <v>50</v>
       </c>
@@ -1211,12 +1201,12 @@
       <c r="F14" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="34"/>
+      <c r="G14" s="33"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="34"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="18" t="s">
         <v>54</v>
       </c>
@@ -1230,12 +1220,12 @@
       <c r="F15" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="34"/>
+      <c r="G15" s="33"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="34"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="18" t="s">
         <v>55</v>
       </c>
@@ -1249,12 +1239,12 @@
       <c r="F16" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="34"/>
+      <c r="G16" s="33"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="34"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="18" t="s">
         <v>47</v>
       </c>
@@ -1268,13 +1258,13 @@
       <c r="F17" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="34"/>
+      <c r="G17" s="33"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="M17" s="27"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="34"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="18" t="s">
         <v>40</v>
       </c>
@@ -1288,13 +1278,13 @@
       <c r="F18" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="34"/>
+      <c r="G18" s="33"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="M18" s="27"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="34"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="18" t="s">
         <v>35</v>
       </c>
@@ -1308,13 +1298,13 @@
       <c r="F19" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="34"/>
+      <c r="G19" s="33"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="M19" s="27"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="34"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="18" t="s">
         <v>27</v>
       </c>
@@ -1328,14 +1318,14 @@
       <c r="F20" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="34"/>
+      <c r="G20" s="33"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="K20" s="6"/>
       <c r="M20" s="27"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="34"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="18" t="s">
         <v>19</v>
       </c>
@@ -1349,14 +1339,14 @@
       <c r="F21" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="34"/>
+      <c r="G21" s="33"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="K21" s="8"/>
       <c r="M21" s="27"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="34"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="18" t="s">
         <v>11</v>
       </c>
@@ -1370,13 +1360,13 @@
       <c r="F22" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="34"/>
+      <c r="G22" s="33"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="M22" s="27"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="34"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="18" t="s">
         <v>2</v>
       </c>
@@ -1390,13 +1380,13 @@
       <c r="F23" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="34"/>
+      <c r="G23" s="33"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="M23" s="27"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="34"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
@@ -1407,18 +1397,18 @@
       <c r="E24" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F24" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="G24" s="34"/>
+      <c r="F24" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="33"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="M24" s="27"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="34"/>
-      <c r="B25" s="32" t="s">
-        <v>101</v>
+      <c r="A25" s="33"/>
+      <c r="B25" s="31" t="s">
+        <v>105</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>66</v>
@@ -1427,15 +1417,15 @@
       <c r="E25" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F25" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="G25" s="34"/>
+      <c r="F25" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" s="33"/>
       <c r="H25" s="7"/>
       <c r="M25" s="27"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="34"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="21" t="s">
         <v>92</v>
       </c>
@@ -1449,13 +1439,13 @@
       <c r="F26" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="G26" s="34"/>
+      <c r="G26" s="33"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="L26" s="18"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="34"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="2" t="s">
         <v>4</v>
       </c>
@@ -1469,15 +1459,15 @@
       <c r="F27" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="G27" s="34"/>
+      <c r="G27" s="33"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="34"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="31" t="s">
         <v>100</v>
       </c>
@@ -1489,15 +1479,15 @@
         <v>73</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="G28" s="34"/>
+        <v>101</v>
+      </c>
+      <c r="G28" s="33"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="M28" s="26"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="34"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="21" t="s">
         <v>74</v>
       </c>
@@ -1511,12 +1501,12 @@
       <c r="F29" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="G29" s="34"/>
+      <c r="G29" s="33"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="34"/>
+      <c r="A30" s="33"/>
       <c r="B30" s="21" t="s">
         <v>78</v>
       </c>
@@ -1530,7 +1520,7 @@
       <c r="F30" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="G30" s="34"/>
+      <c r="G30" s="33"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" t="s">
@@ -1538,7 +1528,7 @@
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="34"/>
+      <c r="A31" s="33"/>
       <c r="B31" s="21" t="s">
         <v>81</v>
       </c>
@@ -1552,12 +1542,12 @@
       <c r="F31" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="G31" s="34"/>
+      <c r="G31" s="33"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="34"/>
+      <c r="A32" s="33"/>
       <c r="B32" s="21" t="s">
         <v>84</v>
       </c>
@@ -1571,7 +1561,7 @@
       <c r="F32" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="G32" s="34"/>
+      <c r="G32" s="33"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" t="s">
@@ -1579,7 +1569,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="34"/>
+      <c r="A33" s="33"/>
       <c r="B33" s="2" t="s">
         <v>4</v>
       </c>
@@ -1593,7 +1583,7 @@
       <c r="F33" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="G33" s="34"/>
+      <c r="G33" s="33"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
     </row>
@@ -1621,24 +1611,24 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1"/>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
       <c r="G36" s="1"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
       <c r="G37" s="1"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
